--- a/模板.xlsx
+++ b/模板.xlsx
@@ -119,7 +119,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>412727199405087002</t>
+    <r>
+      <t>41272719940508700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,14 +202,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +494,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,13 +568,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
